--- a/report_folder/report_3.2_red.xlsx
+++ b/report_folder/report_3.2_red.xlsx
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F17" s="14" t="inlineStr">
+        <is>
+          <t>Aktiv</t>
+        </is>
+      </c>
+      <c r="G17" s="35" t="n">
         <v>10</v>
-      </c>
-      <c r="F17" s="14" t="inlineStr">
-        <is>
-          <t>Aktiv</t>
-        </is>
-      </c>
-      <c r="G17" s="35" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>90.0% der Karten</t>
+          <t>90.9% der Karten</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(70.0%)</t>
+          <t>(63.6%)</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G70" s="35" t="n">
         <v>0</v>
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G73" s="35" t="n">
         <v>0</v>

--- a/report_folder/report_3.2_red.xlsx
+++ b/report_folder/report_3.2_red.xlsx
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>90.9% der Karten</t>
+          <t>72.7% der Karten</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Weltgesundheitstag</t>
+          <t>Informativer Blog zu Corona</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Informativer Blog zu Corona</t>
+          <t>Recruiting Prozess 💩</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Takeover (Himmelfahrt)</t>
+          <t>Blogartikel zu Maribel und Elsa 💩</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4728,7 +4728,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G73" s="35" t="n">
         <v>0</v>

--- a/report_folder/report_3.2_red.xlsx
+++ b/report_folder/report_3.2_red.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>72.7% der Karten</t>
+          <t>100.0% der Karten</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>Ankündigung virtueller Infoabend</t>
+          <t>To Do für die Ausreise</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Sonntagsquiz</t>
+          <t>Google Ads</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Informativer Blog zu Corona</t>
+          <t>Weihnachten Kampagne</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Recruiting Prozess 💩</t>
+          <t>Newsletter Oktober</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Blogartikel zu Maribel und Elsa 💩</t>
+          <t>Toolbox - Einfach Aktion Sodis helfen</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(63.6%)</t>
+          <t>(16.7%)</t>
         </is>
       </c>
     </row>
@@ -4528,11 +4528,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Theresa Schmid</t>
+          <t>Eric Pomp</t>
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -4543,11 +4543,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Eric Pomp</t>
+          <t>Matthias Bausch</t>
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -4556,8 +4556,13 @@
           <t>3.</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Peter Augustin</t>
+        </is>
+      </c>
       <c r="C37" s="14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -4566,8 +4571,13 @@
           <t>4.</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Leonie Ziller</t>
+        </is>
+      </c>
       <c r="C38" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -4576,41 +4586,61 @@
           <t>5.</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Theresa Schmid</t>
+        </is>
+      </c>
       <c r="C39" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Theresa Schmid</t>
+          <t>Eric Pomp</t>
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Eric Pomp</t>
+          <t>Matthias Bausch</t>
         </is>
       </c>
       <c r="F40" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Peter Augustin</t>
+        </is>
+      </c>
+      <c r="F41" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Leonie Ziller</t>
+        </is>
+      </c>
+      <c r="F42" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="F42" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Theresa Schmid</t>
+        </is>
+      </c>
       <c r="F43" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46">
@@ -4728,7 +4758,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -4787,10 +4817,15 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Eric Pomp</t>
+        </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -4800,10 +4835,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Leonie Ziller</t>
+        </is>
       </c>
       <c r="G71" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -4816,8 +4856,13 @@
         <f>B70-B71-B73</f>
         <v/>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Peter Augustin</t>
+        </is>
+      </c>
       <c r="G72" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -4827,7 +4872,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G73" s="35" t="n">
         <v>0</v>
